--- a/Design/UIUX기획서.xlsx
+++ b/Design/UIUX기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14c89125339c5b5f/바탕 화면/project/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_95610A1A80EC9A57AA622060DB2A79C280245386" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40EC480E-B2AF-43B2-B4C5-583536C0E94D}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_95610A1A80EC9A57AA622060DB2A79C280245386" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D141F0A4-4C63-4F8B-AD48-EBAF7129886A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>*게임 흐름도</t>
   </si>
@@ -257,6 +257,194 @@
   </si>
   <si>
     <t>22.11.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 크기는 가로 800, 세로 600으로 지정한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1 섞기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머는 섞는 시간을 조절하는 것으로 {10}초로 정한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 재료가 밥풀처럼 나와 있는 방식 이용, 수저 휘젓는 것은 gif로 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한시간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 자막은 그림에 나와 있는 설명을 따른다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9. 타이머는 색깔은 (64, 64, 64) 배경색은 없다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2 자르기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>*게임 흐름도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 자르기의 경우 타이머는 {30}초로 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 소시지, 양파, 대파 어떻게 자를 건지 정하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3 전자레인지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 맞추기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 여기에서 사용되는 타이머는 시간을 맞춰서 버튼을 누르기 위해 사용된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 버튼은 저 검정색 동그라미이나 시각적 효과가 부족하기에 좀 더 정하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, 타이머가 30초라면 0에 가까워져 있을 때 버튼을 눌러야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4 프라이팬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인터 정하기, gif 만들기 or 찾기, 재료 자르는 횟수 정하기, 배경 따로 저장하기, 조리법 적기, 요리 완성 이미지 찾기, 자르기 선 저장하기 등</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이팬의 경우 볶기와 뒤집기가 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤집기는 gif으로 만들어 손을 손잡이를 위아래로 흔들면 전이 뒤집힌다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>볶는 경우에는 이미지 파일 4개 정도를 활용하여 점점 노릇노릇해지게 만든다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 전자레인지는 실제 조리법과 같이 따라하므로 fps를 좀 더 늘려 활용한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// ex) 실제 30초를 돌리면 게임에서는 10초 정도로 끝나게 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.5 냄비</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리법을 적기위한 화면이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 제한시간도 없고 맞춰야하는 시간도 없으며 애니메이션만 나온다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝 타임은 5초로 하고 가스레인지의 불만 크기만 달라진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 게임 종료 화면</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return_Start</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작화면 돌아가기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Over</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 인게임화면에서 합산한 점수를 마지막에 내보낸다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 메뉴 돌아가기 키 이다. 시작화면의 버튼과 마찬가지로 누르면 색깔이 변한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 종료하기 키이다. 누르면 창이 꺼지며 게임이 종료된다. 버튼을 누르면 색깔이 변한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 실제 화면에서는 12, 13, 14의 위치가 좀 더 올라가 있다. 추후 정리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수는 합산이 아닌 감점 형식이고 각 조리법의 난이도 마다 다르다 // 추후 정리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>*조리법</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리법은 각각의 요리마다 다르므로 순서도를 활용한다. //….</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 이미지도 폴더로 각각 묶어 놓는다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +691,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,16 +729,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,6 +774,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,13 +1018,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>492685</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431126</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -832,16 +1041,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="1047750"/>
-          <a:ext cx="7019925" cy="4010025"/>
+          <a:off x="1165038" y="911711"/>
+          <a:ext cx="4644912" cy="3483684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,15 +1067,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>377862</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442408</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -876,16 +1090,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="6505574"/>
-          <a:ext cx="7181850" cy="4105275"/>
+          <a:off x="1050215" y="5923878"/>
+          <a:ext cx="4771017" cy="3578263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,14 +1117,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,13 +1161,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>403859</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -986,13 +1205,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1018,6 +1237,405 @@
         <a:xfrm>
           <a:off x="21802728" y="9672637"/>
           <a:ext cx="2324100" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396423</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>55270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0294F3BD-4B99-925B-B80C-F6C0F0943793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1004047" y="13285694"/>
+          <a:ext cx="4771200" cy="3578400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261953</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8CB2E2-3E44-6282-8D2B-89DC7606775A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869577" y="18861741"/>
+          <a:ext cx="4771200" cy="3578400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618566</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>206187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616801</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>36776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F036ED-13E3-BA66-D00F-094E2A6B61C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6669742" y="19480305"/>
+          <a:ext cx="3360000" cy="2520000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275506</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>221718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273741</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>52307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FBDACA-CF1E-C41D-FE98-534114C303D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11033153" y="19495836"/>
+          <a:ext cx="3360000" cy="2520000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279882</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>37340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79ECA1D-FF9A-7838-FC96-1151A01E5BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887506" y="24025411"/>
+          <a:ext cx="4771200" cy="3578400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295836</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360565</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>46307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964A8753-A676-50DE-4595-11E1DA271ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="968189" y="29189083"/>
+          <a:ext cx="4771200" cy="3578400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>512965</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>216635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D054BF1C-3047-439C-6D51-83FB3BF13900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120589" y="34290000"/>
+          <a:ext cx="4771200" cy="3578400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406774</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471503</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>91130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F06FA0-D61E-EC4D-C703-C3CFB52ACF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12500" r="12500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079127" y="39767436"/>
+          <a:ext cx="4771200" cy="3578400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,8 +1912,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1306,24 +1924,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1355,10 +1973,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1371,10 +1989,10 @@
         <v>38</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -1387,10 +2005,10 @@
         <v>74</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
@@ -1405,34 +2023,34 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C10" s="1"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
@@ -1445,34 +2063,34 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C14" s="1"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C16" s="1"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C17" s="1"/>
@@ -1523,11 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G13:J13"/>
@@ -1537,6 +2150,11 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1547,10 +2165,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1629,20 +2247,13 @@
       <c r="O10" s="20"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -1651,85 +2262,82 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C25" s="29" t="s">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K28" s="18" t="s">
+      <c r="D26" s="29"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19" t="s">
+      <c r="M29" s="20"/>
+      <c r="N29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K29" s="18">
-        <v>4</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="20"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K30" s="18">
-        <v>5</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="20"/>
+      <c r="N30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="18"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K31" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M31" s="18"/>
-      <c r="N31" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="18"/>
+      <c r="N31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="20"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K32" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M32" s="18"/>
       <c r="N32" s="18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="O32" s="18"/>
       <c r="P32" s="29"/>
@@ -1737,174 +2345,180 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="K33" s="18">
+        <v>7</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="K34" s="18">
         <v>8</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19" t="s">
+      <c r="M34" s="18"/>
+      <c r="N34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="20"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="Q35" t="s">
+      <c r="O34" s="20"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="Q36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="U39" t="s">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="U40" t="s">
         <v>26</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Z40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA42" t="s">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B43" s="30" t="s">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B44" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="Q43" s="31" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="Q44" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="V43" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="AA43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B44" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="Q44" s="29" t="s">
-        <v>2</v>
       </c>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
-      <c r="V44" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
+      <c r="V44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
       <c r="AA44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
       <c r="Q45" s="29" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
+      <c r="V45" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="B46" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="Q46" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B48" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B48" s="29" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B49" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="32" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B51" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -1912,20 +2526,18 @@
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B53" s="29" t="s">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B54" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B54" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
@@ -1933,40 +2545,429 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B55" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C59" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K63" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="20"/>
+      <c r="N63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="20"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K64" s="18">
+        <v>9</v>
+      </c>
+      <c r="L64" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="M64" s="20"/>
+      <c r="N64" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O64" s="49"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K65" s="18">
+        <v>10</v>
+      </c>
+      <c r="L65" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="49"/>
+      <c r="N65" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O65" s="20"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B77" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B78" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B79" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B81" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C84" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="K86" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L86" s="31"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="P93" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B102" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B103" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C107" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K111" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" s="20"/>
+      <c r="N111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O111" s="20"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K112" s="18">
+        <v>11</v>
+      </c>
+      <c r="L112" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="M112" s="20"/>
+      <c r="N112" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="O112" s="51"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B125" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B126" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="J126" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="31"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="31"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B127" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C130" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M135" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M136" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M137" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B148" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B149" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B150" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C153" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B171" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B172" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B173" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B177" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K182" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L182" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M182" s="21"/>
+      <c r="N182" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O182" s="20"/>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K183" s="18">
+        <v>12</v>
+      </c>
+      <c r="L183" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M183" s="49"/>
+      <c r="N183" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="O183" s="20"/>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K184" s="18">
+        <v>13</v>
+      </c>
+      <c r="L184" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="M184" s="18"/>
+      <c r="N184" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="O184" s="18"/>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K185" s="18">
+        <v>14</v>
+      </c>
+      <c r="L185" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M185" s="18"/>
+      <c r="N185" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="O185" s="20"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B195" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B196" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B198" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B199" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B201" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="41">
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:I149"/>
+    <mergeCell ref="B150:I150"/>
+    <mergeCell ref="J126:P126"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:I127"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B44:O44"/>
+    <mergeCell ref="V45:Z45"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B51:H52"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="V44:Z44"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B50:H51"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
@@ -1996,7 +2997,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2008,16 +3009,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="K2" s="36" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="K2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
@@ -2043,10 +3044,12 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
+      <c r="K3" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -2073,10 +3076,10 @@
       <c r="I4" s="2">
         <v>30</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -2103,10 +3106,10 @@
       <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
@@ -2133,10 +3136,10 @@
       <c r="I6" s="2">
         <v>13</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
@@ -2163,10 +3166,10 @@
       <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -2193,10 +3196,10 @@
       <c r="I8" s="2">
         <v>27</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -2223,10 +3226,10 @@
       <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -2253,175 +3256,175 @@
       <c r="I10" s="2">
         <v>11</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>24</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>25</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>26</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>27</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>28</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>29</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>30</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
         <v>31</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
         <v>1</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="13">
         <v>2</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="13">
         <v>3</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="13">
         <v>5</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="13">
         <v>6</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="13">
         <v>7</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="13">
         <v>8</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="13">
@@ -2445,28 +3448,28 @@
       <c r="B31" s="13">
         <v>11</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>12</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="13">
         <v>13</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="13">
@@ -2490,28 +3493,28 @@
       <c r="B36" s="13">
         <v>16</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="13">
         <v>17</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="13">
         <v>18</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="13">
@@ -2535,28 +3538,28 @@
       <c r="B41" s="13">
         <v>21</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="13">
         <v>22</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="13">
         <v>23</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="13">
@@ -2580,148 +3583,181 @@
       <c r="B46" s="13">
         <v>26</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="13">
         <v>27</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="13">
         <v>28</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="13">
         <v>29</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="13">
         <v>30</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="13">
         <v>1</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="13">
         <v>2</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="13">
         <v>3</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="13">
         <v>4</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="13">
         <v>5</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="13">
         <v>6</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="13">
         <v>7</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="13">
         <v>8</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="13">
         <v>9</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="13">
         <v>10</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="13">
         <v>11</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:N12"/>
     <mergeCell ref="B2:D2"/>
@@ -2734,39 +3770,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
